--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3653.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3653.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.298720901276372</v>
+        <v>1.888486862182617</v>
       </c>
       <c r="B1">
-        <v>1.406133288181436</v>
+        <v>1.836326599121094</v>
       </c>
       <c r="C1">
-        <v>1.596257422659303</v>
+        <v>1.749894857406616</v>
       </c>
       <c r="D1">
-        <v>2.531625679878343</v>
+        <v>0.9783680438995361</v>
       </c>
       <c r="E1">
-        <v>6.911059609955416</v>
+        <v>0.6698675751686096</v>
       </c>
     </row>
   </sheetData>
